--- a/output/StructureDefinition-NgImmImmunization.xlsx
+++ b/output/StructureDefinition-NgImmImmunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T09:24:42+01:00</t>
+    <t>2025-06-23T10:40:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NgImmImmunization.xlsx
+++ b/output/StructureDefinition-NgImmImmunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T10:40:32+01:00</t>
+    <t>2025-06-23T11:00:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NgImmImmunization.xlsx
+++ b/output/StructureDefinition-NgImmImmunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T11:00:10+01:00</t>
+    <t>2025-06-23T12:00:39+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NgImmImmunization.xlsx
+++ b/output/StructureDefinition-NgImmImmunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:00:39+01:00</t>
+    <t>2025-06-23T12:11:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NgImmImmunization.xlsx
+++ b/output/StructureDefinition-NgImmImmunization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NgImmImmunization.xlsx
+++ b/output/StructureDefinition-NgImmImmunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T07:35:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -521,6 +521,22 @@
   </si>
   <si>
     <t>Indicates specific situations in which it is not recommended to administer certain vaccines (e.g severe AEFI, History of Anaphylactic reactions, Symptomatic HIV infection)</t>
+  </si>
+  <si>
+    <t>Immunization.extension:contraindicated</t>
+  </si>
+  <si>
+    <t>contraindicated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nphcda.gov.ng/immunizationIG/StructureDefinition/contraindicated}
+</t>
+  </si>
+  <si>
+    <t>Immunization Contraindicated</t>
+  </si>
+  <si>
+    <t>Indicates whether the immunization was contraindicated</t>
   </si>
   <si>
     <t>Immunization.modifierExtension</t>
@@ -1060,10 +1076,7 @@
     <t>Body site where vaccine was administered.</t>
   </si>
   <si>
-    <t>The site at which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-vaccine-site</t>
   </si>
   <si>
     <t>RXR-2</t>
@@ -1084,10 +1097,7 @@
     <t>The path by which the vaccine product is taken into the body.</t>
   </si>
   <si>
-    <t>The route by which the vaccine was administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
+    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-vaccine-route</t>
   </si>
   <si>
     <t>RXR-1</t>
@@ -1886,7 +1896,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3463,11 +3473,13 @@
         <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3477,29 +3489,25 @@
         <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3547,7 +3555,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3556,7 +3564,7 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>140</v>
@@ -3568,7 +3576,7 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3579,42 +3587,46 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3662,7 +3674,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3674,30 +3686,30 @@
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3711,26 +3723,24 @@
         <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3755,11 +3765,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y16" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z16" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3777,13 +3789,13 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
@@ -3792,27 +3804,27 @@
         <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3820,31 +3832,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3870,32 +3882,32 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>89</v>
@@ -3907,16 +3919,16 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>78</v>
@@ -3924,10 +3936,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3935,30 +3947,32 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3983,13 +3997,11 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -4007,10 +4019,10 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>89</v>
@@ -4022,27 +4034,27 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4050,28 +4062,28 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4098,13 +4110,13 @@
         <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>78</v>
@@ -4122,53 +4134,53 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4180,7 +4192,7 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>211</v>
@@ -4188,9 +4200,7 @@
       <c r="M20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4227,40 +4237,40 @@
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4278,7 +4288,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4294,23 +4304,21 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4346,19 +4354,19 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4370,16 +4378,16 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4390,10 +4398,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4404,7 +4412,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4416,19 +4424,19 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4477,13 +4485,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -4495,10 +4503,10 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4509,10 +4517,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4520,7 +4528,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
@@ -4535,16 +4543,20 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4592,10 +4604,10 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>89</v>
@@ -4607,16 +4619,16 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AN23" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4624,10 +4636,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4635,7 +4647,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>89</v>
@@ -4647,16 +4659,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4707,10 +4719,10 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>89</v>
@@ -4722,16 +4734,16 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -4739,10 +4751,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4750,7 +4762,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>89</v>
@@ -4762,20 +4774,18 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4824,10 +4834,10 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>89</v>
@@ -4839,27 +4849,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4867,7 +4877,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
@@ -4879,18 +4889,20 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4939,10 +4951,10 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>89</v>
@@ -4954,19 +4966,19 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -4994,20 +5006,18 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>267</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -5074,13 +5084,13 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5088,10 +5098,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5111,19 +5121,19 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5149,13 +5159,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5173,7 +5183,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5191,13 +5201,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5205,10 +5215,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5231,15 +5241,17 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5264,13 +5276,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5288,7 +5300,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5303,16 +5315,16 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="AN29" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5320,10 +5332,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5337,7 +5349,7 @@
         <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>78</v>
@@ -5346,13 +5358,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5403,7 +5415,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5418,27 +5430,27 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AM30" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AO30" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5452,7 +5464,7 @@
         <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>78</v>
@@ -5461,13 +5473,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5518,7 +5530,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5530,41 +5542,41 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5576,7 +5588,7 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>211</v>
@@ -5584,9 +5596,7 @@
       <c r="M32" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5623,40 +5633,40 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF32" t="s" s="2">
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5667,21 +5677,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5690,19 +5700,19 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>298</v>
+        <v>171</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5740,31 +5750,31 @@
         <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5773,7 +5783,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5784,10 +5794,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5795,7 +5805,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>89</v>
@@ -5810,16 +5820,16 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5845,40 +5855,40 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI34" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>101</v>
@@ -5901,10 +5911,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5927,16 +5937,16 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5962,13 +5972,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6007,7 +6017,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6018,10 +6028,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6029,7 +6039,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
@@ -6044,16 +6054,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6103,7 +6113,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6124,7 +6134,7 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>132</v>
+        <v>319</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6152,16 +6162,16 @@
         <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K37" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>321</v>
@@ -6169,7 +6179,9 @@
       <c r="M37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6218,7 +6230,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6236,24 +6248,24 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>132</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>325</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6276,13 +6288,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6333,7 +6345,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6351,24 +6363,24 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6391,7 +6403,7 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>187</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>333</v>
@@ -6424,13 +6436,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6448,7 +6460,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6466,24 +6478,24 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>339</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6491,13 +6503,13 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>78</v>
@@ -6506,13 +6518,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6539,13 +6551,11 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6563,7 +6573,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6581,24 +6591,24 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6606,13 +6616,13 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>78</v>
@@ -6621,13 +6631,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>349</v>
+        <v>192</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6654,13 +6664,11 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6678,7 +6686,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6696,24 +6704,24 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6721,10 +6729,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>90</v>
@@ -6733,16 +6741,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6793,13 +6801,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6808,13 +6816,13 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6825,10 +6833,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6839,25 +6847,25 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>205</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>206</v>
+        <v>359</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>207</v>
+        <v>360</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6908,28 +6916,28 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>208</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>209</v>
+        <v>363</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6940,21 +6948,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6966,7 +6974,7 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>211</v>
@@ -6974,9 +6982,7 @@
       <c r="M44" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N44" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7025,28 +7031,28 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7057,14 +7063,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>364</v>
+        <v>168</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7077,26 +7083,24 @@
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>365</v>
+        <v>216</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>366</v>
+        <v>217</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7144,7 +7148,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7165,7 +7169,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7176,42 +7180,46 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7235,13 +7243,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>371</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7259,28 +7267,28 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>374</v>
+        <v>132</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7291,10 +7299,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7302,7 +7310,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>89</v>
@@ -7317,17 +7325,15 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>376</v>
+        <v>192</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7352,13 +7358,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7376,10 +7382,10 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>89</v>
@@ -7391,16 +7397,16 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7408,10 +7414,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7419,10 +7425,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7434,15 +7440,17 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7491,13 +7499,13 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
@@ -7506,16 +7514,16 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7523,10 +7531,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7546,16 +7554,16 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>187</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7582,13 +7590,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>394</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -7606,7 +7614,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7621,13 +7629,13 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7638,10 +7646,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7664,13 +7672,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>398</v>
+        <v>192</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7697,13 +7705,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7721,7 +7729,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7736,13 +7744,13 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>132</v>
+        <v>399</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7753,10 +7761,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7767,36 +7775,32 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>264</v>
+        <v>401</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>404</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q51" t="s" s="2">
-        <v>405</v>
-      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7840,13 +7844,13 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
@@ -7855,10 +7859,10 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>132</v>
@@ -7872,10 +7876,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7886,32 +7890,36 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="R52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7931,13 +7939,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>410</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>411</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7955,13 +7963,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -7973,7 +7981,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>132</v>
@@ -7987,10 +7995,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8013,13 +8021,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>355</v>
+        <v>192</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8046,13 +8054,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8070,7 +8078,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8082,7 +8090,7 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>415</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8102,10 +8110,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8116,7 +8124,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8128,13 +8136,13 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>205</v>
+        <v>358</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>206</v>
+        <v>416</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>207</v>
+        <v>417</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8185,19 +8193,19 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>208</v>
+        <v>415</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8206,7 +8214,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8217,21 +8225,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8243,7 +8251,7 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>211</v>
@@ -8251,9 +8259,7 @@
       <c r="M55" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8302,28 +8308,28 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8334,14 +8340,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>364</v>
+        <v>168</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8354,26 +8360,24 @@
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>365</v>
+        <v>216</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>366</v>
+        <v>217</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8421,7 +8425,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8442,7 +8446,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8453,42 +8457,46 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8536,25 +8544,25 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>419</v>
+        <v>370</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>422</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>132</v>
@@ -8568,10 +8576,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8594,13 +8602,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8651,7 +8659,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8669,7 +8677,7 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>132</v>
@@ -8709,7 +8717,7 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>249</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>427</v>
@@ -8784,7 +8792,7 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>429</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>132</v>
@@ -8798,10 +8806,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8824,13 +8832,13 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8881,7 +8889,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8899,7 +8907,7 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>132</v>
@@ -8913,10 +8921,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8927,7 +8935,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8939,13 +8947,13 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8972,13 +8980,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>437</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8996,13 +9004,13 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
@@ -9014,7 +9022,7 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>132</v>
@@ -9028,10 +9036,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9042,7 +9050,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9054,13 +9062,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9087,13 +9095,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9111,13 +9119,13 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
@@ -9129,7 +9137,7 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>78</v>
+        <v>442</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>132</v>
@@ -9143,10 +9151,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9157,7 +9165,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9169,17 +9177,15 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>355</v>
+        <v>192</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9204,13 +9210,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9228,13 +9234,13 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
@@ -9246,10 +9252,10 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>450</v>
+        <v>132</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9260,10 +9266,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9274,7 +9280,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9286,15 +9292,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>205</v>
+        <v>358</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>206</v>
+        <v>449</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9343,28 +9351,28 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>208</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>209</v>
+        <v>453</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9375,21 +9383,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9401,7 +9409,7 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>211</v>
@@ -9409,9 +9417,7 @@
       <c r="M65" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N65" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9460,28 +9466,28 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9492,14 +9498,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>364</v>
+        <v>168</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9512,26 +9518,24 @@
         <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>365</v>
+        <v>216</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>366</v>
+        <v>217</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9579,7 +9583,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9600,7 +9604,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9611,42 +9615,46 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9694,28 +9702,28 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>454</v>
+        <v>370</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>457</v>
+        <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>255</v>
+        <v>132</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9726,10 +9734,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9752,13 +9760,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9809,7 +9817,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9827,10 +9835,10 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>463</v>
+        <v>260</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -9841,10 +9849,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9867,13 +9875,13 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>264</v>
+        <v>462</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9924,7 +9932,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9942,10 +9950,10 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -9956,10 +9964,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9970,10 +9978,10 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>78</v>
@@ -9982,13 +9990,13 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>355</v>
+        <v>269</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10039,13 +10047,13 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
@@ -10057,10 +10065,10 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>132</v>
+        <v>471</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10085,10 +10093,10 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>78</v>
@@ -10097,13 +10105,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>205</v>
+        <v>358</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>206</v>
+        <v>473</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>207</v>
+        <v>474</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10154,19 +10162,19 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>208</v>
+        <v>472</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10175,7 +10183,7 @@
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10186,10 +10194,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10200,7 +10208,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10212,13 +10220,13 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10257,38 +10265,40 @@
         <v>78</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC72" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10299,14 +10309,12 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10315,10 +10323,10 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>78</v>
@@ -10327,13 +10335,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>476</v>
+        <v>134</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>477</v>
+        <v>135</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>478</v>
+        <v>136</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10372,19 +10380,17 @@
         <v>78</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC73" s="2"/>
       <c r="AD73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10393,7 +10399,7 @@
         <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>140</v>
@@ -10416,46 +10422,44 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="D74" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>134</v>
+        <v>479</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>365</v>
+        <v>480</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
       </c>
@@ -10503,7 +10507,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10512,7 +10516,7 @@
         <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>140</v>
@@ -10524,7 +10528,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10535,42 +10539,46 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>481</v>
+        <v>368</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10618,19 +10626,19 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>480</v>
+        <v>370</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -10676,7 +10684,7 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>484</v>
@@ -10779,10 +10787,10 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>78</v>
@@ -10791,7 +10799,7 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>487</v>
@@ -10824,13 +10832,13 @@
         <v>78</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>489</v>
+        <v>78</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>490</v>
+        <v>78</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>78</v>
@@ -10854,7 +10862,7 @@
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
@@ -10880,10 +10888,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10891,13 +10899,13 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>78</v>
@@ -10906,17 +10914,15 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>492</v>
+        <v>192</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
@@ -10941,13 +10947,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>78</v>
+        <v>492</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>78</v>
+        <v>493</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -10965,13 +10971,13 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
@@ -10997,10 +11003,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11008,7 +11014,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>89</v>
@@ -11023,16 +11029,16 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11082,10 +11088,10 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>89</v>
@@ -11112,8 +11118,125 @@
         <v>78</v>
       </c>
     </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO79">
+  <autoFilter ref="A1:AO80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11123,7 +11246,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NgImmImmunization.xlsx
+++ b/output/StructureDefinition-NgImmImmunization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -605,7 +605,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-primary-vaccine-status</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>This is generally only used for the status of "not-done". The reason for performing the immunization event is captured in reasonCode, not here.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -1100,7 +1103,7 @@
     <t>The path by which the vaccine product is taken into the body.</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-vaccine-route</t>
+    <t>https://www.hl7.org/fhir/R4/valueset-immunization-route</t>
   </si>
   <si>
     <t>RXR-1</t>
@@ -1935,7 +1938,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="55.93359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.53125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
@@ -4006,7 +4009,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -4039,13 +4042,13 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4056,10 +4059,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4085,10 +4088,10 @@
         <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4115,13 +4118,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4139,7 +4142,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>90</v>
@@ -4154,27 +4157,27 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4197,13 +4200,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4254,7 +4257,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4275,7 +4278,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4286,10 +4289,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4315,10 +4318,10 @@
         <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>172</v>
@@ -4362,7 +4365,7 @@
         <v>138</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
@@ -4371,7 +4374,7 @@
         <v>139</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4392,7 +4395,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4403,10 +4406,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4429,19 +4432,19 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4490,7 +4493,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4508,10 +4511,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4522,10 +4525,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4548,19 +4551,19 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4609,7 +4612,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4627,10 +4630,10 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4641,10 +4644,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4667,13 +4670,13 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4724,7 +4727,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>90</v>
@@ -4739,16 +4742,16 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4756,10 +4759,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4782,13 +4785,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4839,7 +4842,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4854,16 +4857,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -4871,10 +4874,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4897,16 +4900,16 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4956,7 +4959,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>90</v>
@@ -4971,27 +4974,27 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5014,13 +5017,13 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5071,7 +5074,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5092,10 +5095,10 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5103,10 +5106,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5129,16 +5132,16 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5188,7 +5191,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5206,13 +5209,13 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5220,10 +5223,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5249,13 +5252,13 @@
         <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5281,13 +5284,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5305,7 +5308,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5323,13 +5326,13 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5337,10 +5340,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5363,13 +5366,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5420,7 +5423,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5435,16 +5438,16 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5452,10 +5455,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5478,13 +5481,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5535,7 +5538,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5553,24 +5556,24 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5593,13 +5596,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5650,7 +5653,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5671,7 +5674,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5682,10 +5685,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5711,10 +5714,10 @@
         <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>172</v>
@@ -5758,7 +5761,7 @@
         <v>138</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>79</v>
@@ -5767,7 +5770,7 @@
         <v>139</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5788,7 +5791,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5799,10 +5802,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5825,16 +5828,16 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5884,7 +5887,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5893,7 +5896,7 @@
         <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>102</v>
@@ -5916,10 +5919,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5945,13 +5948,13 @@
         <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5977,13 +5980,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6001,7 +6004,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6033,10 +6036,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6062,13 +6065,13 @@
         <v>176</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6118,7 +6121,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6139,7 +6142,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6150,10 +6153,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6176,16 +6179,16 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6235,7 +6238,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6267,10 +6270,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6293,13 +6296,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6350,7 +6353,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6368,24 +6371,24 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6408,13 +6411,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6465,7 +6468,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6483,10 +6486,10 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6497,10 +6500,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6526,10 +6529,10 @@
         <v>193</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6560,7 +6563,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6578,7 +6581,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6596,24 +6599,24 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6639,10 +6642,10 @@
         <v>193</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6673,7 +6676,7 @@
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6691,7 +6694,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6709,24 +6712,24 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6749,13 +6752,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6806,7 +6809,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6824,10 +6827,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6838,10 +6841,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6864,13 +6867,13 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6921,7 +6924,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6936,13 +6939,13 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6953,10 +6956,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6979,13 +6982,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7036,7 +7039,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7057,7 +7060,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7068,10 +7071,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7097,10 +7100,10 @@
         <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>172</v>
@@ -7153,7 +7156,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7174,7 +7177,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7185,14 +7188,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7214,10 +7217,10 @@
         <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>172</v>
@@ -7272,7 +7275,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7304,10 +7307,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7333,10 +7336,10 @@
         <v>193</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7363,13 +7366,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7387,7 +7390,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7402,13 +7405,13 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7419,10 +7422,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7445,16 +7448,16 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7504,7 +7507,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>90</v>
@@ -7519,16 +7522,16 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7536,10 +7539,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7562,13 +7565,13 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7619,7 +7622,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7634,13 +7637,13 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7651,10 +7654,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7680,10 +7683,10 @@
         <v>193</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7710,13 +7713,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7734,7 +7737,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7749,13 +7752,13 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7766,10 +7769,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7792,13 +7795,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7849,7 +7852,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7864,7 +7867,7 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7881,10 +7884,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7907,23 +7910,23 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>79</v>
@@ -7968,7 +7971,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7986,7 +7989,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>133</v>
@@ -8000,10 +8003,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8029,10 +8032,10 @@
         <v>193</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8059,13 +8062,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8083,7 +8086,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8115,10 +8118,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8141,13 +8144,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8198,7 +8201,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8210,7 +8213,7 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8230,10 +8233,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8256,13 +8259,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8313,7 +8316,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8334,7 +8337,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8345,10 +8348,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8374,10 +8377,10 @@
         <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>172</v>
@@ -8430,7 +8433,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8451,7 +8454,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8462,14 +8465,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8491,10 +8494,10 @@
         <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>172</v>
@@ -8549,7 +8552,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8581,10 +8584,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8607,13 +8610,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8664,7 +8667,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8682,7 +8685,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>133</v>
@@ -8696,10 +8699,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8725,10 +8728,10 @@
         <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8779,7 +8782,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8811,10 +8814,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8837,13 +8840,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8894,7 +8897,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8912,7 +8915,7 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>133</v>
@@ -8926,10 +8929,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8952,13 +8955,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9009,7 +9012,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9027,7 +9030,7 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>133</v>
@@ -9041,10 +9044,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9070,10 +9073,10 @@
         <v>193</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9100,13 +9103,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9124,7 +9127,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9142,7 +9145,7 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>133</v>
@@ -9156,10 +9159,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9185,10 +9188,10 @@
         <v>193</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9215,13 +9218,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9239,7 +9242,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9271,10 +9274,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9297,16 +9300,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9356,7 +9359,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9374,10 +9377,10 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9388,10 +9391,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9414,13 +9417,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9471,7 +9474,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9492,7 +9495,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9503,10 +9506,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9532,10 +9535,10 @@
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>172</v>
@@ -9588,7 +9591,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9609,7 +9612,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9620,14 +9623,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9649,10 +9652,10 @@
         <v>135</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>172</v>
@@ -9707,7 +9710,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9739,10 +9742,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9765,13 +9768,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9822,7 +9825,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9840,10 +9843,10 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9854,10 +9857,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9880,13 +9883,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9937,7 +9940,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -9955,10 +9958,10 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -9969,10 +9972,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9995,13 +9998,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10052,7 +10055,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10070,10 +10073,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10084,10 +10087,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10110,13 +10113,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10167,7 +10170,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10199,10 +10202,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10225,13 +10228,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10282,7 +10285,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10303,7 +10306,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10314,10 +10317,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10395,7 +10398,7 @@
         <v>139</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10427,13 +10430,13 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="B74" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="C74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>79</v>
@@ -10455,13 +10458,13 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10512,7 +10515,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10544,14 +10547,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10573,10 +10576,10 @@
         <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>172</v>
@@ -10631,7 +10634,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10663,10 +10666,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10689,13 +10692,13 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10746,7 +10749,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -10778,10 +10781,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10804,13 +10807,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10861,7 +10864,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -10893,10 +10896,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10922,10 +10925,10 @@
         <v>193</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10952,13 +10955,13 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -10976,7 +10979,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11008,10 +11011,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11034,16 +11037,16 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11093,7 +11096,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>90</v>
@@ -11125,10 +11128,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11151,16 +11154,16 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11210,7 +11213,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>

--- a/output/StructureDefinition-NgImmImmunization.xlsx
+++ b/output/StructureDefinition-NgImmImmunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="499">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-25T15:41:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -458,40 +458,24 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Immunization.extension:primaryVaccineStatus</t>
-  </si>
-  <si>
-    <t>primaryVaccineStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://nphcda.gov.ng/immunizationIG/StructureDefinition/primary-vaccine-status}
+    <t>Immunization.extension:signature</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://nphcda.gov.ng/immunizationIG/StructureDefinition/signature}
 </t>
   </si>
   <si>
-    <t>NG-Imm Primary VaccineStatus</t>
-  </si>
-  <si>
-    <t>Indicates whether the immunization patient has completed the full primary vaccine series</t>
+    <t>NG-Imm Digital Signature</t>
+  </si>
+  <si>
+    <t>A digital or electronic signature capturing who signed, when, type, and signature data.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>Immunization.extension:signature</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://nphcda.gov.ng/immunizationIG/StructureDefinition/signature}
-</t>
-  </si>
-  <si>
-    <t>NG-Imm Digital Signature</t>
-  </si>
-  <si>
-    <t>A digital or electronic signature capturing who signed, when, type, and signature data.</t>
   </si>
   <si>
     <t>Immunization.extension:sessionType</t>
@@ -1103,7 +1087,7 @@
     <t>The path by which the vaccine product is taken into the body.</t>
   </si>
   <si>
-    <t>https://www.hl7.org/fhir/R4/valueset-immunization-route</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-route</t>
   </si>
   <si>
     <t>RXR-1</t>
@@ -1904,7 +1888,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO80"/>
+  <dimension ref="A1:AO79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1913,17 +1897,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.3671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.63671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.6953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.8046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1932,27 +1916,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.93359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.53125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.6015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.0546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.546875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="38.4375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="123.66015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="196.421875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="134.5703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="127.9296875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="203.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="141.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3260,7 +3244,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>91</v>
@@ -3481,13 +3465,11 @@
         <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3497,25 +3479,29 @@
         <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3563,7 +3549,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3572,7 +3558,7 @@
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>141</v>
@@ -3584,7 +3570,7 @@
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3595,46 +3581,42 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O15" t="s" s="2">
         <v>173</v>
       </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3682,7 +3664,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3694,30 +3676,30 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3731,24 +3713,26 @@
         <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3773,13 +3757,11 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3797,13 +3779,13 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
@@ -3812,27 +3794,27 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3840,31 +3822,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3890,11 +3872,11 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3912,10 +3894,10 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>90</v>
@@ -3927,16 +3909,16 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -3944,10 +3926,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3955,32 +3937,30 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -4005,11 +3985,13 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -4027,10 +4009,10 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>90</v>
@@ -4042,27 +4024,27 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4070,28 +4052,28 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4118,13 +4100,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4142,10 +4124,10 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>90</v>
@@ -4154,41 +4136,41 @@
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4200,7 +4182,7 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>213</v>
@@ -4208,7 +4190,9 @@
       <c r="M20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4245,31 +4229,31 @@
         <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4278,7 +4262,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4296,7 +4280,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4312,21 +4296,23 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4362,19 +4348,19 @@
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4386,16 +4372,16 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4406,10 +4392,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4420,7 +4406,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4432,19 +4418,19 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4493,13 +4479,13 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
@@ -4511,10 +4497,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4525,10 +4511,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4536,7 +4522,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
@@ -4551,20 +4537,16 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4612,10 +4594,10 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>90</v>
@@ -4627,16 +4609,16 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4644,10 +4626,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4655,7 +4637,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>90</v>
@@ -4667,16 +4649,16 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4727,10 +4709,10 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>90</v>
@@ -4742,16 +4724,16 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4759,10 +4741,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4770,7 +4752,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -4782,18 +4764,20 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4842,10 +4826,10 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>90</v>
@@ -4857,27 +4841,27 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4885,7 +4869,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>90</v>
@@ -4897,20 +4881,18 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4959,10 +4941,10 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>90</v>
@@ -4974,19 +4956,19 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -5014,18 +4996,20 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5092,13 +5076,13 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5106,10 +5090,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5129,19 +5113,19 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5167,13 +5151,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5191,7 +5175,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5209,13 +5193,13 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5223,10 +5207,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5249,17 +5233,15 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5284,13 +5266,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5308,7 +5290,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5323,16 +5305,16 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5340,10 +5322,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5357,7 +5339,7 @@
         <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>79</v>
@@ -5366,13 +5348,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5423,7 +5405,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5438,27 +5420,27 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5472,7 +5454,7 @@
         <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>79</v>
@@ -5481,13 +5463,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>209</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5538,7 +5520,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5550,41 +5532,41 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>299</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5596,7 +5578,7 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>213</v>
@@ -5604,7 +5586,9 @@
       <c r="M32" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5641,31 +5625,31 @@
         <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -5674,7 +5658,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5685,21 +5669,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5708,19 +5692,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5758,31 +5742,31 @@
         <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -5791,7 +5775,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5802,10 +5786,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5813,7 +5797,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -5828,16 +5812,16 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5863,13 +5847,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5887,7 +5871,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5896,7 +5880,7 @@
         <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>102</v>
@@ -5919,10 +5903,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5945,16 +5929,16 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5980,13 +5964,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6025,7 +6009,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>133</v>
+        <v>316</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6036,10 +6020,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6047,7 +6031,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>90</v>
@@ -6062,16 +6046,16 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6121,7 +6105,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6142,7 +6126,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>133</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6170,16 +6154,16 @@
         <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>323</v>
@@ -6187,9 +6171,7 @@
       <c r="M37" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6238,7 +6220,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6256,24 +6238,24 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>133</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6296,13 +6278,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>212</v>
+        <v>329</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6353,7 +6335,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6371,24 +6353,24 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6396,13 +6378,13 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>79</v>
@@ -6411,7 +6393,7 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>334</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>335</v>
@@ -6444,13 +6426,11 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -6468,7 +6448,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6486,24 +6466,24 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6526,13 +6506,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6559,11 +6539,11 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6581,7 +6561,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6599,24 +6579,24 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6624,13 +6604,13 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>79</v>
@@ -6639,13 +6619,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>193</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6672,11 +6652,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z41" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6694,7 +6676,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6712,24 +6694,24 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6737,10 +6719,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>91</v>
@@ -6749,16 +6731,16 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6809,13 +6791,13 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
@@ -6824,13 +6806,13 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6841,10 +6823,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6855,25 +6837,25 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>361</v>
+        <v>208</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>362</v>
+        <v>209</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6924,28 +6906,28 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>210</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>365</v>
+        <v>211</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6956,21 +6938,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6982,7 +6964,7 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>213</v>
@@ -6990,7 +6972,9 @@
       <c r="M44" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7039,19 +7023,19 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7060,7 +7044,7 @@
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7071,14 +7055,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>169</v>
+        <v>364</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7091,24 +7075,26 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>218</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7156,7 +7142,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7177,7 +7163,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7195,39 +7181,35 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7251,13 +7233,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7275,28 +7257,28 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>133</v>
+        <v>374</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7307,10 +7289,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7318,7 +7300,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>90</v>
@@ -7333,15 +7315,17 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>193</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7366,13 +7350,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7390,10 +7374,10 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>90</v>
@@ -7405,16 +7389,16 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7422,10 +7406,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7433,10 +7417,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7448,17 +7432,15 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7507,13 +7489,13 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
@@ -7522,16 +7504,16 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7539,10 +7521,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7562,16 +7544,16 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>389</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7598,13 +7580,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7622,7 +7604,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7637,13 +7619,13 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7654,10 +7636,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7680,13 +7662,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>193</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7713,13 +7695,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7737,7 +7719,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7758,7 +7740,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>401</v>
+        <v>133</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7769,10 +7751,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7783,32 +7765,36 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="R51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7852,13 +7838,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -7867,10 +7853,10 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>133</v>
@@ -7884,10 +7870,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7898,62 +7884,58 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N52" t="s" s="2">
         <v>409</v>
       </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q52" t="s" s="2">
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="R52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="Z52" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -7971,13 +7953,13 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
@@ -7989,7 +7971,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>133</v>
@@ -8029,7 +8011,7 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>193</v>
+        <v>355</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>413</v>
@@ -8062,13 +8044,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8098,7 +8080,7 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>415</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8118,10 +8100,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8132,7 +8114,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8144,13 +8126,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>418</v>
+        <v>208</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>419</v>
+        <v>209</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8201,19 +8183,19 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>417</v>
+        <v>210</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8222,7 +8204,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8233,21 +8215,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8259,7 +8241,7 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
         <v>213</v>
@@ -8267,7 +8249,9 @@
       <c r="M55" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8316,19 +8300,19 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8337,7 +8321,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8348,14 +8332,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>169</v>
+        <v>364</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8368,24 +8352,26 @@
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>218</v>
+        <v>365</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8433,7 +8419,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8454,7 +8440,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8465,46 +8451,42 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8552,25 +8534,25 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>133</v>
@@ -8584,10 +8566,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8610,13 +8592,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8667,7 +8649,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8685,7 +8667,7 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>133</v>
@@ -8699,10 +8681,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8725,13 +8707,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8782,7 +8764,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8800,7 +8782,7 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>133</v>
@@ -8814,10 +8796,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8840,13 +8822,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8897,7 +8879,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8915,7 +8897,7 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>133</v>
@@ -8929,10 +8911,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8943,7 +8925,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -8955,13 +8937,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8988,13 +8970,13 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9012,13 +8994,13 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
@@ -9030,7 +9012,7 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>133</v>
@@ -9044,10 +9026,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9058,7 +9040,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9070,13 +9052,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9103,13 +9085,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9127,13 +9109,13 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
@@ -9145,7 +9127,7 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>133</v>
@@ -9173,7 +9155,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9185,7 +9167,7 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>193</v>
+        <v>355</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>446</v>
@@ -9193,7 +9175,9 @@
       <c r="M63" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="N63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9218,13 +9202,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9248,7 +9232,7 @@
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
@@ -9260,10 +9244,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>133</v>
+        <v>450</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9274,10 +9258,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9288,7 +9272,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9300,17 +9284,15 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>451</v>
+        <v>208</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9359,28 +9341,28 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>455</v>
+        <v>211</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9391,21 +9373,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9417,7 +9399,7 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>213</v>
@@ -9425,7 +9407,9 @@
       <c r="M65" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="N65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9474,19 +9458,19 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -9495,7 +9479,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9506,14 +9490,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>169</v>
+        <v>364</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9526,24 +9510,26 @@
         <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>218</v>
+        <v>365</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9591,7 +9577,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9612,7 +9598,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>216</v>
+        <v>133</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9623,46 +9609,42 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>370</v>
+        <v>455</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9710,28 +9692,28 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9742,10 +9724,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9768,7 +9750,7 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>256</v>
+        <v>459</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>460</v>
@@ -9825,7 +9807,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9846,7 +9828,7 @@
         <v>462</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>262</v>
+        <v>463</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -9857,10 +9839,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9883,7 +9865,7 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>464</v>
+        <v>266</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>465</v>
@@ -9940,7 +9922,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -9986,10 +9968,10 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>79</v>
@@ -9998,7 +9980,7 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>271</v>
+        <v>355</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>470</v>
@@ -10061,7 +10043,7 @@
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
@@ -10073,10 +10055,10 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>473</v>
+        <v>133</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10087,10 +10069,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10101,10 +10083,10 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>79</v>
@@ -10113,13 +10095,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>475</v>
+        <v>208</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>476</v>
+        <v>209</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10170,19 +10152,19 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>474</v>
+        <v>210</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10191,7 +10173,7 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10202,10 +10184,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10216,7 +10198,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10228,13 +10210,13 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10273,31 +10255,29 @@
         <v>79</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10306,7 +10286,7 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
@@ -10317,12 +10297,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10331,10 +10313,10 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>79</v>
@@ -10343,13 +10325,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>135</v>
+        <v>476</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>136</v>
+        <v>477</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>137</v>
+        <v>478</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10388,17 +10370,19 @@
         <v>79</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC73" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10407,7 +10391,7 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>141</v>
@@ -10433,41 +10417,43 @@
         <v>479</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I74" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>481</v>
+        <v>135</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>482</v>
+        <v>365</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
       </c>
@@ -10515,7 +10501,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10524,7 +10510,7 @@
         <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>141</v>
@@ -10536,7 +10522,7 @@
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>79</v>
@@ -10547,46 +10533,42 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>370</v>
+        <v>481</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10634,19 +10616,19 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>372</v>
+        <v>480</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -10666,10 +10648,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10692,13 +10674,13 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10749,7 +10731,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -10781,10 +10763,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10795,10 +10777,10 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>79</v>
@@ -10807,13 +10789,13 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>294</v>
+        <v>188</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10840,13 +10822,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -10864,13 +10846,13 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
@@ -10907,13 +10889,13 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>79</v>
@@ -10922,15 +10904,17 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>193</v>
+        <v>492</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -10955,13 +10939,13 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -10982,10 +10966,10 @@
         <v>491</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
@@ -11022,7 +11006,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>90</v>
@@ -11037,16 +11021,16 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M79" t="s" s="2">
-        <v>499</v>
-      </c>
       <c r="N79" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11099,7 +11083,7 @@
         <v>496</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>90</v>
@@ -11126,125 +11110,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO80">
+  <autoFilter ref="A1:AO79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11254,7 +11121,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
